--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srovi\Desktop\TI\QA\Tech Fixe\02. HW C06 TF\SauceLabs\Login_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7702423-65C5-490C-BD20-C9724354F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68D04C1-B96A-4B08-9D7F-DD209345FE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="163">
   <si>
     <t>Project Name</t>
   </si>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t>Second Checkout page Happy path</t>
-  </si>
-  <si>
-    <t>Fill in with valid credentials</t>
   </si>
   <si>
     <t>"/checkout-step-two.html" should display checkout overview</t>
@@ -618,7 +615,7 @@
 Internet connection on.</t>
   </si>
   <si>
-    <t>Internet connection on.</t>
+    <t>All Items</t>
   </si>
 </sst>
 </file>
@@ -1287,8 +1284,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1349,8 +1346,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1429,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" s="41"/>
     </row>
@@ -1893,6 +1890,7 @@
     <hyperlink ref="D5" r:id="rId2" xr:uid="{F88710ED-A0B4-4B6A-9BAF-A0658971CE85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1903,8 +1901,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:D22"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1934,7 +1932,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -2181,6 +2179,7 @@
     <hyperlink ref="B2" r:id="rId1" display="Estar logado e &quot;https://www.saucedemo.com/inventory.html&quot;; Internet connection on." xr:uid="{8D6DABB4-9166-4C81-BF95-6E28B07A8D8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2192,7 +2191,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2222,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -2374,6 +2373,7 @@
     <hyperlink ref="B2" r:id="rId1" display="Estar logado e &quot;https://www.saucedemo.com/inventory.html&quot;; Internet connection on." xr:uid="{CAD0784C-35BA-44F8-B498-646B078E1BF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2384,8 +2384,8 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2419,7 +2419,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -2534,13 +2534,13 @@
         <v>34</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>118</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>21</v>
@@ -2550,9 +2550,7 @@
       <c r="A12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>125</v>
-      </c>
+      <c r="B12" s="29"/>
       <c r="C12" s="28" t="s">
         <v>118</v>
       </c>
@@ -2564,7 +2562,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2575,13 +2573,13 @@
         <v>41</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>118</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="43" t="s">
         <v>21</v>
@@ -2592,13 +2590,13 @@
         <v>44</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>118</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" s="44"/>
     </row>
@@ -2618,7 +2616,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="7"/>
@@ -2629,13 +2627,13 @@
         <v>47</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="E18" s="43" t="s">
         <v>21</v>
@@ -2649,10 +2647,10 @@
         <v>125</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>139</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>140</v>
       </c>
       <c r="E19" s="44"/>
     </row>
@@ -2662,7 +2660,7 @@
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="45"/>
@@ -2672,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2683,13 +2681,13 @@
         <v>52</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>118</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" s="43" t="s">
         <v>21</v>
@@ -2704,7 +2702,7 @@
         <v>118</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="45"/>
     </row>
@@ -2721,6 +2719,7 @@
     <hyperlink ref="B2" r:id="rId1" display="Estar logado e &quot;https://www.saucedemo.com/inventory.html&quot;; Internet connection on." xr:uid="{E5C61C85-1A29-4C11-B329-B65CE7A0D676}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2732,7 +2731,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2762,7 +2761,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -2772,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -2782,10 +2781,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>21</v>
@@ -2796,7 +2795,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="45"/>
@@ -2806,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2816,10 +2815,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>21</v>
@@ -2830,7 +2829,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="45"/>
@@ -2840,7 +2839,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2850,10 +2849,10 @@
         <v>34</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>21</v>
@@ -2864,10 +2863,10 @@
         <v>36</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>155</v>
       </c>
       <c r="D11" s="45"/>
     </row>
@@ -2876,7 +2875,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2886,10 +2885,10 @@
         <v>41</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="43" t="s">
         <v>21</v>
@@ -2900,10 +2899,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="D14" s="45"/>
     </row>
@@ -2918,5 +2917,6 @@
     <hyperlink ref="C7" r:id="rId1" xr:uid="{9197EA26-5008-4D97-9C20-8809F7774F2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>